--- a/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H2">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N2">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q2">
-        <v>46.55594560982918</v>
+        <v>120.783020462912</v>
       </c>
       <c r="R2">
-        <v>46.55594560982918</v>
+        <v>1087.047184166208</v>
       </c>
       <c r="S2">
-        <v>0.006848138741241828</v>
+        <v>0.01564012744488751</v>
       </c>
       <c r="T2">
-        <v>0.006848138741241828</v>
+        <v>0.01564012744488751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H3">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N3">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q3">
-        <v>32.44861006579626</v>
+        <v>40.54157842816</v>
       </c>
       <c r="R3">
-        <v>32.44861006579626</v>
+        <v>364.87420585344</v>
       </c>
       <c r="S3">
-        <v>0.004773022667251205</v>
+        <v>0.005249706879354171</v>
       </c>
       <c r="T3">
-        <v>0.004773022667251205</v>
+        <v>0.005249706879354171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H4">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N4">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q4">
-        <v>2706.292613685674</v>
+        <v>3390.415507434664</v>
       </c>
       <c r="R4">
-        <v>2706.292613685674</v>
+        <v>30513.73956691198</v>
       </c>
       <c r="S4">
-        <v>0.3980816424230174</v>
+        <v>0.4390230549308343</v>
       </c>
       <c r="T4">
-        <v>0.3980816424230174</v>
+        <v>0.4390230549308343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H5">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N5">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q5">
-        <v>45.0594913465325</v>
+        <v>95.02553252099555</v>
       </c>
       <c r="R5">
-        <v>45.0594913465325</v>
+        <v>855.2297926889599</v>
       </c>
       <c r="S5">
-        <v>0.006628018061042071</v>
+        <v>0.01230480437937909</v>
       </c>
       <c r="T5">
-        <v>0.006628018061042071</v>
+        <v>0.01230480437937909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H6">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N6">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q6">
-        <v>31.40560985959359</v>
+        <v>31.89591603697778</v>
       </c>
       <c r="R6">
-        <v>31.40560985959359</v>
+        <v>287.0632443328</v>
       </c>
       <c r="S6">
-        <v>0.00461960273289782</v>
+        <v>0.004130184771649622</v>
       </c>
       <c r="T6">
-        <v>0.00461960273289782</v>
+        <v>0.004130184771649622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H7">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N7">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q7">
-        <v>2619.303872152665</v>
+        <v>2667.395117514458</v>
       </c>
       <c r="R7">
-        <v>2619.303872152665</v>
+        <v>24006.55605763012</v>
       </c>
       <c r="S7">
-        <v>0.3852860485812225</v>
+        <v>0.345399538974164</v>
       </c>
       <c r="T7">
-        <v>0.3852860485812225</v>
+        <v>0.345399538974164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H8">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N8">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q8">
-        <v>22.01801923295751</v>
+        <v>46.81296357881601</v>
       </c>
       <c r="R8">
-        <v>22.01801923295751</v>
+        <v>421.3166722093441</v>
       </c>
       <c r="S8">
-        <v>0.003238736718576925</v>
+        <v>0.006061785122109769</v>
       </c>
       <c r="T8">
-        <v>0.003238736718576925</v>
+        <v>0.006061785122109769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H9">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N9">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q9">
-        <v>15.34614131778263</v>
+        <v>15.71306485888</v>
       </c>
       <c r="R9">
-        <v>15.34614131778263</v>
+        <v>141.41758372992</v>
       </c>
       <c r="S9">
-        <v>0.002257337994326795</v>
+        <v>0.002034676198697388</v>
       </c>
       <c r="T9">
-        <v>0.002257337994326795</v>
+        <v>0.002034676198697388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H10">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N10">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q10">
-        <v>1279.905327614301</v>
+        <v>1314.053888189752</v>
       </c>
       <c r="R10">
-        <v>1279.905327614301</v>
+        <v>11826.48499370777</v>
       </c>
       <c r="S10">
-        <v>0.1882674520804233</v>
+        <v>0.1701561212989241</v>
       </c>
       <c r="T10">
-        <v>0.1882674520804233</v>
+        <v>0.1701561212989241</v>
       </c>
     </row>
   </sheetData>
